--- a/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
@@ -2574,11 +2574,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">Copyright © NEC Corporation 2019. All rights reserved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">免責事項 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">本書の内容はすべて日本電気株式会社が所有する著作権に保護されています。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">本書の内容の一部または全部を無断で転載および複写することは禁止されています。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">本書の内容は将来予告なしに変更することがあります。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本電気株式会社は、本書の技術的もしくは編集上の間違い、欠落について、一切責任を負いません。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本電気株式会社は、本書の内容に関し、その正確性、有用性、確実性その他いかなる保証もいたしません。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">商標 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LinuxはLinus Torvalds氏の米国およびその他の国における登録商標または商標です。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Hatは、Red Hat, Inc.の米国およびその他の国における登録商標または商標です。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apache、Apache Tomcat、Tomcatは、Apache Software Foundationの登録商標または商標です。 </t>
+  </si>
+  <si>
+    <t> Ansibleは、Red Hat, Inc.の登録商標または商標です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その他、本書に記載のシステム名、会社名、製品名は、各社の登録商標もしくは商標です。 </t>
+  </si>
+  <si>
+    <t>なお、® マーク、TMマークは本書に明記しておりません。</t>
+  </si>
+  <si>
+    <t>※本書では「Exastro IT Automation」を「ITA」として記載します。 </t>
+  </si>
+  <si>
     <t>利用手順マニュアル
 Ansible-driver
 別紙　Ansible利用ガイドライン
 ITA追加ルール
-－第1.1版－</t>
+－第1.2版－</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
     </rPh>
@@ -2589,51 +2634,6 @@
       <t>ベッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright © NEC Corporation 2019. All rights reserved. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">免責事項 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">本書の内容はすべて日本電気株式会社が所有する著作権に保護されています。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">本書の内容の一部または全部を無断で転載および複写することは禁止されています。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">本書の内容は将来予告なしに変更することがあります。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本電気株式会社は、本書の技術的もしくは編集上の間違い、欠落について、一切責任を負いません。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本電気株式会社は、本書の内容に関し、その正確性、有用性、確実性その他いかなる保証もいたしません。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">商標 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LinuxはLinus Torvalds氏の米国およびその他の国における登録商標または商標です。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Hatは、Red Hat, Inc.の米国およびその他の国における登録商標または商標です。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apache、Apache Tomcat、Tomcatは、Apache Software Foundationの登録商標または商標です。 </t>
-  </si>
-  <si>
-    <t> Ansibleは、Red Hat, Inc.の登録商標または商標です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その他、本書に記載のシステム名、会社名、製品名は、各社の登録商標もしくは商標です。 </t>
-  </si>
-  <si>
-    <t>なお、® マーク、TMマークは本書に明記しておりません。</t>
-  </si>
-  <si>
-    <t>※本書では「Exastro IT Automation」を「ITA」として記載します。 </t>
   </si>
 </sst>
 </file>
@@ -7358,15 +7358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I58"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -8031,7 +8031,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
@@ -8039,32 +8039,32 @@
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
@@ -8072,27 +8072,27 @@
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
@@ -8100,17 +8100,17 @@
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8242,7 +8242,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:I58"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8786,7 +8786,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I58"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9133,8 +9133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:I58"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
@@ -2623,7 +2623,7 @@
 Ansible-driver
 別紙　Ansible利用ガイドライン
 ITA追加ルール
-－第1.2版－</t>
+－第1.3版－</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
     </rPh>
@@ -7358,8 +7358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9133,7 +9133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11955" tabRatio="625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11955" tabRatio="625" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="00.表紙" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01.免責事項_商標'!$A$1:$A$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03.Ansible利用ガイドラインITA追加ルール)'!$A$1:$J$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'03.Ansible利用ガイドラインITA追加ルール)'!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'03.Ansible利用ガイドラインITA追加ルール)'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="140">
   <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
@@ -127,36 +127,6 @@
     </rPh>
     <rPh sb="88" eb="90">
       <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tasksディレクトリ内のplaybookやtemplatesディレクトリ内のテキストファイルで使用する変数は、
-defaultsディレクトリ内のmain.ymlに定義する。
-※具体値は必須ではない</t>
-    <rPh sb="37" eb="38">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>グタイ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ヒッス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1114,97 +1084,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-【tasks/main.yml】
-- name: テンプレートファイル内容確認
-   command: cat /tmp/{{ VAR_SAMPLE_01 }}
-   command: cat /tmp/{{ VAR_SAMPLE_02 }}
-   command: cat /tmp/{{ VAR_SAMPLE_03 }}
-【defaults/main.yml】
-VAR_SAMPLE_01: SAMPLE_01.txt
-VAR_SAMPLE_02:
-VAR_SAMPLE_03: SAMPLE_03.txt
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-【tasks/main.yml】
-- name: テンプレートファイル内容確認
-   command: cat /tmp/{{ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VAR_SAMPLE_01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> }}
-   command: cat /tmp/{{ VAR_SAMPLE_02 }}
-   command: cat /tmp/{{ VAR_SAMPLE_03 }}
-【defaults/main.yml】
-VAR_SAMPLE_02:
-VAR_SAMPLE_03: SAMPLE_03.txt
-</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-各ロールのデフォルト変数定義ファイルで配列変数を定義する際の注意事項
-・単一ロールパッケージ
-ロールを跨って同じ変数名を使用しているが配列変数のメンバー変数の定義が違う際。
-ロールを跨って同じ変数名を使用しているが配列変数と一般の変数が混在している際。
-=&gt;アップロード時にエラーとなります。
-・全ロールパッケージ
-ロールパッケージを跨って同一変数名を使用しているが配列変数のメンバー変数の定義が違う際。
-ロールパッケージを跨って同一変数名を使用しているが配列変数と一般の変数が混在している際。
-=&gt;代入値管理に変数名が表示されません。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・単一ロールパッケージ
-　ロールパッケージ管理
-・全ロールパッケージ
-　代入値管理</t>
-    <rPh sb="1" eb="3">
-      <t>タンイツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カンリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1253,44 +1133,6 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・単一ロールパッケージ
-　ロールパッケージを登録できません。
-・全ロールパッケージ
-　配列変数に値を設定できません。
-　ロールパッケージに定義されている値で実行します。</t>
-    <rPh sb="1" eb="3">
-      <t>タンイツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1542,38 +1384,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールパッケージファイルに含むplaybookでグローバル変数を使用する場合、アップロードする前にグローバル変数を登録する。</t>
-    <rPh sb="13" eb="14">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールパッケージを登録する前にグローバル変数を登録していない</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1786,105 +1596,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・接頭文字(GBL_)が小文字になっている</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-　　　　command: cat /tmp/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{{ gbl_SAMPLE }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・接頭文字(GBL_)の「_」がない
-　　　　command: cat /tmp/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{{ GBLSAMPLE }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-・変数名が129文字以上ある</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>セットウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>セットウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>・"{{"または"}}" と変数名の間に「半角スペース」がない
 　　　　copy: src=</t>
     </r>
@@ -2060,93 +1771,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロールパッケージファイルに含むplaybookでファイル埋込変数を使用する場合、アップロードする前にファイル埋込変数を登録する。</t>
-    <rPh sb="13" eb="14">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールパッケージを登録する前にファイル埋込変数を登録しいていない</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・括弧と変数名の間の半角スペース、または接頭文字(CPF_)がルールに準じていない場合
-・変数名が129文字以上ある場合</t>
-    <rPh sb="35" eb="36">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールパッケージを登録する前にグローバル変数を登録している</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロールパッケージを登録する前にファイル埋込変数を登録している</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業実行時にグローバル変数の置換が行われないためエラーとなります。</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -2193,39 +1817,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・接頭文字(GBL_)がルールに準拠してない場合
-・変数名が129文字以上ある場合
-</t>
-    <rPh sb="1" eb="3">
-      <t>セットウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2367,44 +1958,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ITAWebUI上のテンプレート管理メニューでテンプレート素材を登録をする際、
-テンプレート埋込変数名の接頭文字をTPF_とし、TPF_を含め128Byte以内とする。</t>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録画面でバリデーションチェックを行っているので、ITA追加ルールに準拠しないテンプレート埋込変数名は登録できません。</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -2435,6 +1988,235 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面でバリデーションチェックを行っているので、ITA追加ルールに準拠しないグローバル変数名は登録できません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面でバリデーションチェックを行っているので、ITA追加ルールに準拠しないファイル埋込変数名は登録できません。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright © NEC Corporation 2019. All rights reserved. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">免責事項 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">本書の内容はすべて日本電気株式会社が所有する著作権に保護されています。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">本書の内容の一部または全部を無断で転載および複写することは禁止されています。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">本書の内容は将来予告なしに変更することがあります。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本電気株式会社は、本書の技術的もしくは編集上の間違い、欠落について、一切責任を負いません。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本電気株式会社は、本書の内容に関し、その正確性、有用性、確実性その他いかなる保証もいたしません。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">商標 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LinuxはLinus Torvalds氏の米国およびその他の国における登録商標または商標です。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red Hatは、Red Hat, Inc.の米国およびその他の国における登録商標または商標です。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apache、Apache Tomcat、Tomcatは、Apache Software Foundationの登録商標または商標です。 </t>
+  </si>
+  <si>
+    <t> Ansibleは、Red Hat, Inc.の登録商標または商標です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その他、本書に記載のシステム名、会社名、製品名は、各社の登録商標もしくは商標です。 </t>
+  </si>
+  <si>
+    <t>なお、® マーク、TMマークは本書に明記しておりません。</t>
+  </si>
+  <si>
+    <t>※本書では「Exastro IT Automation」を「ITA」として記載します。 </t>
+  </si>
+  <si>
+    <t>ITAWebUI上のテンプレート管理メニューでテンプレート素材を登録をする際、
+テンプレート埋込変数名の接頭文字をTPF_とし、TPF_を含め256Byte以内とする。</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・括弧と変数名の間の半角スペース、または接頭文字(CPF_)がルールに準じていない場合
+・変数名が257文字以上ある場合</t>
+    <rPh sb="35" eb="36">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITAWebUI上のファイル管理メニューでファイル埋込変数を登録する際、
+ファイル埋込変数名の接頭文字をCPF_とし、CPF_を含め256Byte以内とする。</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・単一ロールパッケージ
+　ロールパッケージを登録できません。
+・全ロールパッケージ
+　ロールパッケージを登録できません。</t>
+    <rPh sb="1" eb="3">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・単一ロールパッケージ
+　ロールパッケージ管理
+・全ロールパッケージ
+　ロールパッケージ管理</t>
+    <rPh sb="1" eb="3">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2474,156 +2256,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録画面でバリデーションチェックを行っているので、ITA追加ルールに準拠しないグローバル変数名は登録できません。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・接頭文字(GBL_)が小文字になっている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　　　　command: cat /tmp/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{ gbl_SAMPLE }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・接頭文字(GBL_)の「_」がない
+　　　　command: cat /tmp/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{ GBLSAMPLE }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・変数名が129文字以上ある</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>セットウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セットウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・接頭文字(GBL_)がルールに準拠してない場合
+・変数名が129文字以上ある場合
+</t>
+    <rPh sb="1" eb="3">
+      <t>セットウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>ジュンキョ</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>ヘンスウ</t>
     </rPh>
-    <rPh sb="46" eb="47">
+    <rPh sb="35" eb="36">
       <t>メイ</t>
     </rPh>
-    <rPh sb="48" eb="50">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ITAWebUI上のファイル管理メニューでファイル埋込変数を登録する際、
-ファイル埋込変数名の接頭文字をCPF_とし、CPF_を含め128Byte以内とする。</t>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録画面でバリデーションチェックを行っているので、ITA追加ルールに準拠しないファイル埋込変数名は登録できません。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright © NEC Corporation 2019. All rights reserved. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">免責事項 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">本書の内容はすべて日本電気株式会社が所有する著作権に保護されています。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">本書の内容の一部または全部を無断で転載および複写することは禁止されています。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">本書の内容は将来予告なしに変更することがあります。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本電気株式会社は、本書の技術的もしくは編集上の間違い、欠落について、一切責任を負いません。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本電気株式会社は、本書の内容に関し、その正確性、有用性、確実性その他いかなる保証もいたしません。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">商標 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LinuxはLinus Torvalds氏の米国およびその他の国における登録商標または商標です。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Red Hatは、Red Hat, Inc.の米国およびその他の国における登録商標または商標です。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apache、Apache Tomcat、Tomcatは、Apache Software Foundationの登録商標または商標です。 </t>
-  </si>
-  <si>
-    <t> Ansibleは、Red Hat, Inc.の登録商標または商標です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その他、本書に記載のシステム名、会社名、製品名は、各社の登録商標もしくは商標です。 </t>
-  </si>
-  <si>
-    <t>なお、® マーク、TMマークは本書に明記しておりません。</t>
-  </si>
-  <si>
-    <t>※本書では「Exastro IT Automation」を「ITA」として記載します。 </t>
+    <rPh sb="40" eb="42">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+各ロールのデフォルト変数定義ファイルで配列変数を定義する際の注意事項
+・単一ロールパッケージ
+ロールを跨って同じ変数名を使用しているが配列変数のメンバー変数の定義が違う際。
+ロールを跨って同じ変数名を使用しているが配列変数と一般の変数が混在している際。
+=&gt;アップロード時にエラーとなります。
+・全ロールパッケージ
+ロールパッケージを跨って同一変数名を使用しているが配列変数のメンバー変数の定義が違う際。
+ロールパッケージを跨って同一変数名を使用しているが配列変数と一般の変数が混在している際。
+=&gt;アップロード時にエラーとなります。
+</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>利用手順マニュアル
 Ansible-driver
 別紙　Ansible利用ガイドライン
 ITA追加ルール
-－第1.3版－</t>
+－第1.4版－</t>
     <rPh sb="0" eb="2">
       <t>リヨウ</t>
     </rPh>
@@ -2773,7 +2556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2789,6 +2572,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3169,7 +2964,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3216,9 +3011,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3238,9 +3030,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3265,12 +3054,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3312,9 +3095,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3323,20 +3103,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3386,14 +3187,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3901,7 +3702,7 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>128Byte</a:t>
+                <a:t>256Byte</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -4534,7 +4335,7 @@
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>128Byte</a:t>
+                <a:t>256Byte</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -4803,13 +4604,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4524375</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3556976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4858,13 +4659,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1123950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5029,7 +4830,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>3790950</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1449324</xdr:rowOff>
+      <xdr:rowOff>1176618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5052,8 +4853,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23374350" y="2914650"/>
-          <a:ext cx="1990725" cy="1382649"/>
+          <a:off x="23068990" y="2912969"/>
+          <a:ext cx="1990725" cy="1109943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5109,19 +4910,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1286436</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4477187</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1638509</xdr:rowOff>
+      <xdr:colOff>4411072</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1546056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPr id="36" name="図 35"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5140,51 +4941,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22917150" y="6200775"/>
-          <a:ext cx="3134162" cy="1495634"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>885825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4534336</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2352880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22983825" y="8772525"/>
+          <a:off x="22555201" y="13593295"/>
           <a:ext cx="3124636" cy="1467055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5197,162 +4954,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>871257</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4024472</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1661478</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22445382" y="11729197"/>
-          <a:ext cx="3153215" cy="1476581"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2073089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5591735</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2980989</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21607743" y="13617389"/>
-          <a:ext cx="5558117" cy="907900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4213412</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2521324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5413562</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2683249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25787537" y="14065624"/>
-          <a:ext cx="1200150" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5692588</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>840133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5363,7 +4972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5390,13 +4999,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4751293</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>414618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5177117</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>582706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5450,13 +5059,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>100146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5416050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5467,7 +5076,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5494,10 +5103,10 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1837026</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>71439</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1990725" cy="1382649"/>
+    <xdr:ext cx="1990725" cy="1105179"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="84" name="図 83"/>
@@ -5519,8 +5128,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23138390" y="6150121"/>
-          <a:ext cx="1990725" cy="1382649"/>
+          <a:off x="23105791" y="6122615"/>
+          <a:ext cx="1990725" cy="1105179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5533,10 +5142,10 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1884650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1990725" cy="1382649"/>
+    <xdr:ext cx="1990725" cy="1107345"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="111" name="図 110"/>
@@ -5558,8 +5167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23186014" y="12694228"/>
-          <a:ext cx="1990725" cy="1382649"/>
+          <a:off x="23153415" y="9852008"/>
+          <a:ext cx="1990725" cy="1107345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5572,13 +5181,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>889102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3086101</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1898752</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5588,7 +5197,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403736" y="14201149"/>
+          <a:off x="403736" y="11058414"/>
           <a:ext cx="2769109" cy="915924"/>
           <a:chOff x="2019299" y="1762125"/>
           <a:chExt cx="3009901" cy="1095375"/>
@@ -5725,7 +5334,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>128Byte</a:t>
+              <a:t>256Byte</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
@@ -6086,13 +5695,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2267242</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>666827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6103,7 +5712,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6130,13 +5739,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2038613</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>657302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6147,7 +5756,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6173,15 +5782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>64190</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>217419</xdr:rowOff>
+      <xdr:colOff>19367</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5648733</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1051891</xdr:rowOff>
+      <xdr:colOff>5603910</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1085509</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6190,8 +5799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19619221" y="8726745"/>
-          <a:ext cx="5138773" cy="757129"/>
+          <a:off x="19579351" y="7097772"/>
+          <a:ext cx="5137249" cy="756748"/>
           <a:chOff x="21632103" y="18579963"/>
           <a:chExt cx="5584543" cy="834472"/>
         </a:xfrm>
@@ -6204,7 +5813,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6276,58 +5885,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1262062</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4569863</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1581708</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="図 144"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22563426" y="11070647"/>
-          <a:ext cx="3307801" cy="1490788"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>75323</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1420191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>3760120</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2088381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6338,7 +5903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6365,13 +5930,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>132230</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>170889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5628155</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1077446</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6381,7 +5946,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19683070" y="13549611"/>
+          <a:off x="19683070" y="10406876"/>
           <a:ext cx="5055108" cy="821594"/>
           <a:chOff x="21650325" y="25201469"/>
           <a:chExt cx="5495925" cy="906557"/>
@@ -6395,7 +5960,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6468,13 +6033,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123531</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1545271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>5643965</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>2180772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6485,7 +6050,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6508,61 +6073,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1328406</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>73347</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4485408</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1577122</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="図 151"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22629770" y="16300483"/>
-          <a:ext cx="3157002" cy="1503775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>146958</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>851001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3156859</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1860651</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6572,7 +6093,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="468779" y="9301653"/>
+          <a:off x="468779" y="7641729"/>
           <a:ext cx="2769109" cy="915924"/>
           <a:chOff x="2019299" y="1762125"/>
           <a:chExt cx="3009901" cy="1095375"/>
@@ -7066,6 +6587,220 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2218764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4665571</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3472140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="20831735"/>
+          <a:ext cx="4295776" cy="1253376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>バグっています。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>書いてあることが正しい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2129119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5513294</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3148853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="図 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21504088" y="24395207"/>
+          <a:ext cx="5277971" cy="1019734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>246531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5468470</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1736912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="図 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21448061" y="22512619"/>
+          <a:ext cx="5289174" cy="1490381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7358,651 +7093,651 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I58"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="A1" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8030,205 +7765,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
-        <v>133</v>
+      <c r="A1" s="38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
+      <c r="A2" s="38"/>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
-        <v>134</v>
+      <c r="A3" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
-        <v>135</v>
+      <c r="A4" s="38" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
-        <v>136</v>
+      <c r="A5" s="38" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
-        <v>137</v>
+      <c r="A6" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
-        <v>138</v>
+      <c r="A7" s="38" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="s">
-        <v>139</v>
+      <c r="A8" s="38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="38"/>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
-        <v>140</v>
+      <c r="A10" s="38" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
-        <v>141</v>
+      <c r="A11" s="38" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
-        <v>142</v>
+      <c r="A12" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
-        <v>143</v>
+      <c r="A13" s="38" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
-        <v>144</v>
+      <c r="A14" s="38" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
+      <c r="A15" s="38"/>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
-        <v>145</v>
+      <c r="A16" s="38" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
-        <v>146</v>
+      <c r="A17" s="38" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
-        <v>147</v>
+      <c r="A18" s="38" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
+      <c r="A19" s="38"/>
     </row>
     <row r="20" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
+      <c r="A20" s="38"/>
     </row>
     <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42"/>
+      <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
+      <c r="A23" s="38"/>
     </row>
     <row r="24" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
+      <c r="A24" s="38"/>
     </row>
     <row r="25" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="42"/>
+      <c r="A26" s="38"/>
     </row>
     <row r="27" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
+      <c r="A27" s="38"/>
     </row>
     <row r="28" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="42"/>
+      <c r="A28" s="38"/>
     </row>
     <row r="29" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42"/>
+      <c r="A29" s="38"/>
     </row>
     <row r="30" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42"/>
+      <c r="A30" s="38"/>
     </row>
     <row r="31" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
+      <c r="A31" s="38"/>
     </row>
     <row r="32" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
+      <c r="A32" s="38"/>
     </row>
     <row r="33" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
+      <c r="A33" s="38"/>
     </row>
     <row r="34" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
+      <c r="A34" s="38"/>
     </row>
     <row r="35" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
+      <c r="A35" s="38"/>
     </row>
     <row r="36" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
+      <c r="A36" s="38"/>
     </row>
     <row r="37" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
+      <c r="A37" s="38"/>
     </row>
     <row r="38" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
+      <c r="A38" s="38"/>
     </row>
     <row r="39" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
+      <c r="A39" s="38"/>
     </row>
     <row r="40" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
+      <c r="A40" s="38"/>
     </row>
     <row r="41" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
+      <c r="A41" s="38"/>
     </row>
     <row r="42" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
+      <c r="A42" s="38"/>
     </row>
     <row r="43" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
+      <c r="A43" s="38"/>
     </row>
     <row r="44" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
+      <c r="A44" s="38"/>
     </row>
     <row r="45" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
+      <c r="A45" s="38"/>
     </row>
     <row r="46" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
+      <c r="A46" s="38"/>
     </row>
     <row r="47" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
+      <c r="A47" s="38"/>
     </row>
     <row r="48" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
+      <c r="A48" s="38"/>
     </row>
     <row r="49" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
+      <c r="A49" s="38"/>
     </row>
     <row r="50" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
+      <c r="A50" s="38"/>
     </row>
     <row r="51" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
+      <c r="A51" s="38"/>
     </row>
     <row r="52" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
+      <c r="A52" s="38"/>
     </row>
     <row r="53" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
+      <c r="A53" s="38"/>
     </row>
     <row r="54" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
+      <c r="A54" s="38"/>
     </row>
     <row r="55" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
+      <c r="A55" s="38"/>
     </row>
     <row r="56" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
+      <c r="A56" s="38"/>
     </row>
     <row r="57" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
+      <c r="A57" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8239,10 +7974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8255,8 +7990,8 @@
     <col min="6" max="6" width="65.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="49.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="45.125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="76.75" style="43" customWidth="1"/>
+    <col min="9" max="9" width="45.125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="76.75" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8266,219 +8001,221 @@
       <c r="D1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="12"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="D4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" s="57" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" s="57" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="49">
         <v>2</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="69" t="s">
+      <c r="B6" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-    </row>
-    <row r="5" spans="1:10" ht="144" x14ac:dyDescent="0.15">
-      <c r="A5" s="23">
+      <c r="I6" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" s="57" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="49">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="E7" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" s="46" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="49">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.15">
-      <c r="A8" s="23">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>105</v>
+      <c r="B10" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>0</v>
@@ -8487,63 +8224,61 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49">
+        <v>7</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="D11" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23">
-        <v>7</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="G11" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="288" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>0</v>
@@ -8551,27 +8286,29 @@
       <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>104</v>
+      <c r="F12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="174" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23">
+    <row r="13" spans="1:10" ht="262.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49">
         <v>9</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>106</v>
+      <c r="B13" s="47" t="s">
+        <v>138</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>0</v>
@@ -8579,28 +8316,28 @@
       <c r="E13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>120</v>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.15">
+      <c r="A14" s="49">
         <v>10</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>114</v>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -8611,158 +8348,66 @@
       <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>77</v>
+      <c r="F14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:10" ht="288" x14ac:dyDescent="0.15">
-      <c r="A15" s="23">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15" s="49">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
+      <c r="B15" s="43" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="242.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.15">
-      <c r="A17" s="23">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="108" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
-        <v>14</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:2" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="I3:I4"/>
@@ -8800,312 +8445,308 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="B2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="41" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="72">
+        <v>1</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="70">
-        <v>1</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="71" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="76"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74">
+        <v>2</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="72"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73">
-        <v>2</v>
-      </c>
-      <c r="B6" s="73" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="F6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="74" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="77"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72">
+        <v>3</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="75"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="70">
-        <v>3</v>
-      </c>
-      <c r="B8" s="70" t="s">
+      <c r="F8" s="73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="74">
+        <v>4</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E10" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="F12" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="72"/>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="72"/>
+      <c r="F13" s="76"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="74">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="74"/>
+      <c r="B15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="77"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="72">
+        <v>7</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="71" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="72"/>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="74">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73">
-        <v>4</v>
-      </c>
-      <c r="B10" s="73" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="74"/>
+      <c r="B19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="74" t="s">
+      <c r="D19" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="72"/>
-    </row>
-    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73">
-        <v>6</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="74" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="B15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="75"/>
-    </row>
-    <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73">
-        <v>8</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="E8:E9"/>
@@ -9114,14 +8755,18 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9133,7 +8778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -9149,186 +8794,186 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="79"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="33">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="33">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="C7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="F7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="26" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="33">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
-        <v>3</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
-        <v>4</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="G8" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="33">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="D9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
-        <v>5</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="36" t="s">
+    <row r="10" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="36" t="s">
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
-        <v>6</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
+++ b/asset/Documents_ja/Exastro-ITA_利用手順マニュアル_Ansible-driver_別紙_Ansible利用ガイドライン_追加ルール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11955" tabRatio="625" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11955" tabRatio="625"/>
   </bookViews>
   <sheets>
     <sheet name="00.表紙" sheetId="9" r:id="rId1"/>
@@ -3354,8 +3354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="377016" y="1427400"/>
-          <a:ext cx="3980691" cy="1078990"/>
+          <a:off x="405401" y="1575551"/>
+          <a:ext cx="4327401" cy="1190623"/>
           <a:chOff x="406523" y="742952"/>
           <a:chExt cx="4327401" cy="1190623"/>
         </a:xfrm>
@@ -3987,8 +3987,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="383920" y="4471418"/>
-          <a:ext cx="3980691" cy="1019101"/>
+          <a:off x="412686" y="4932271"/>
+          <a:ext cx="4327401" cy="1118905"/>
           <a:chOff x="463673" y="3200402"/>
           <a:chExt cx="4327401" cy="1190623"/>
         </a:xfrm>
@@ -5197,8 +5197,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403736" y="11058414"/>
-          <a:ext cx="2769109" cy="915924"/>
+          <a:off x="434788" y="12195837"/>
+          <a:ext cx="3009901" cy="1009650"/>
           <a:chOff x="2019299" y="1762125"/>
           <a:chExt cx="3009901" cy="1095375"/>
         </a:xfrm>
@@ -5799,8 +5799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19579351" y="7097772"/>
-          <a:ext cx="5137249" cy="756748"/>
+          <a:off x="21288132" y="7826213"/>
+          <a:ext cx="5584543" cy="834472"/>
           <a:chOff x="21632103" y="18579963"/>
           <a:chExt cx="5584543" cy="834472"/>
         </a:xfrm>
@@ -5946,8 +5946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19683070" y="10406876"/>
-          <a:ext cx="5055108" cy="821594"/>
+          <a:off x="21400995" y="11477624"/>
+          <a:ext cx="5495925" cy="906557"/>
           <a:chOff x="21650325" y="25201469"/>
           <a:chExt cx="5495925" cy="906557"/>
         </a:xfrm>
@@ -6093,8 +6093,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="468779" y="7641729"/>
-          <a:ext cx="2769109" cy="915924"/>
+          <a:off x="505546" y="8426177"/>
+          <a:ext cx="3009901" cy="1009650"/>
           <a:chOff x="2019299" y="1762125"/>
           <a:chExt cx="3009901" cy="1095375"/>
         </a:xfrm>
@@ -6587,110 +6587,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2218764</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4665571</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>3472140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="728383" y="20831735"/>
-          <a:ext cx="4295776" cy="1253376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>バグっています。</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>書いてあることが正しい。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -7093,8 +6989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7976,9 +7872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8778,7 +8672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
